--- a/main_file/20240322/ค่าเสียหาย_20240322.xlsx
+++ b/main_file/20240322/ค่าเสียหาย_20240322.xlsx
@@ -73,7 +73,7 @@
     <x:t>ผู้ตรวจสอบ</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_CDCKK_20240322</x:t>
+    <x:t>ค่าเสียหาย_CDCKK_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>20240322</x:t>
@@ -124,7 +124,7 @@
     <x:t>20240422</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_CDCBB_20240322</x:t>
+    <x:t>ค่าเสียหาย_CDCBB_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>FC01130638</x:t>
@@ -193,7 +193,7 @@
     <x:t>เกี๊ยวกุ้ง เจด ดราก้อน</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_CDCCM_20240322</x:t>
+    <x:t>ค่าเสียหาย_CDCCM_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>FC11130510</x:t>
@@ -388,7 +388,7 @@
     <x:t>76</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_CDCCB_20240322</x:t>
+    <x:t>ค่าเสียหาย_CDCCB_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>FC12130636</x:t>
@@ -508,7 +508,7 @@
     <x:t>Hปลาเส้นต้ม ตราแต้จิ๋ว</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_BDCCM_20240322</x:t>
+    <x:t>ค่าเสียหาย_BDCCM_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>WB11130292</x:t>
@@ -667,7 +667,7 @@
     <x:t>23.01</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_CDCMC_20240322</x:t>
+    <x:t>ค่าเสียหาย_CDCMC_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>FC06130953</x:t>
@@ -1249,7 +1249,7 @@
     <x:t>เบอร์เกอร์หมูย่างซอสญี่ปุ่นไข่ดาวEzyTast</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_DCBB_20240322</x:t>
+    <x:t>ค่าเสียหาย_DCBB_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>W101131168</x:t>
@@ -1876,7 +1876,7 @@
     <x:t>19</x:t>
   </x:si>
   <x:si>
-    <x:t>ค่าเสียหาย_DCKS_20240322</x:t>
+    <x:t>ค่าเสียหาย_DCKS_20240321</x:t>
   </x:si>
   <x:si>
     <x:t>WK01130018</x:t>
